--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -166,15 +166,15 @@
     <t>well</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>funny</t>
   </si>
   <si>
@@ -193,10 +193,10 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>relief</t>
@@ -2135,25 +2135,25 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.6939655172413793</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L33">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2161,25 +2161,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6818181818181818</v>
+        <v>0.6737588652482269</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2187,25 +2187,25 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.6737588652482269</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L35">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="M35">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="N35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2369,25 +2369,25 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.6036585365853658</v>
+        <v>0.6</v>
       </c>
       <c r="L42">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="M42">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2395,13 +2395,13 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.6</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="10:17">
